--- a/DDAf_2023_Tableau_annexe_sources.xlsx
+++ b/DDAf_2023_Tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/DDAf_2023_Tableau_annexe_sources.xlsx
+++ b/DDAf_2023_Tableau_annexe_sources.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA5084-BC7D-4EB4-884A-07D092E5C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE82EF6A-2D1A-422E-AC52-5290079C5A18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,23 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -63,6 +75,18 @@
     <t>http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
+    <t>Base de données CNUCED-Eora sur la chaîne de valeur mondiale (CVM)</t>
+  </si>
+  <si>
+    <t>CNUCED et Eora</t>
+  </si>
+  <si>
+    <t>Mise à jour le 01/09/2021</t>
+  </si>
+  <si>
+    <t>https://worldmrio.com/unctadgvc/</t>
+  </si>
+  <si>
     <t>Base de données des coûts commerciaux CESAP-Banque mondiale</t>
   </si>
   <si>
@@ -147,18 +171,6 @@
     <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr</t>
   </si>
   <si>
-    <t>Base de données CNUCED-Eora sur la chaîne de valeur mondiale (CVM)</t>
-  </si>
-  <si>
-    <t>CNUCED et Eora</t>
-  </si>
-  <si>
-    <t>Mise à jour le 01/09/2021</t>
-  </si>
-  <si>
-    <t>https://worldmrio.com/unctadgvc/</t>
-  </si>
-  <si>
     <t>Comptes nationaux de la Division de statistique des Nations Unies</t>
   </si>
   <si>
@@ -292,30 +304,6 @@
   </si>
   <si>
     <t>http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
-  </si>
-  <si>
-    <t>World Bank Enterprise Survey Microdata</t>
-  </si>
-  <si>
-    <t>Récupéré avril 2020</t>
-  </si>
-  <si>
-    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
-  </si>
-  <si>
-    <t>World Population Prospects: the 2019 revision, ONU</t>
-  </si>
-  <si>
-    <t>Nations Unies, Département des affaires économiques et sociales, Division de la population</t>
-  </si>
-  <si>
-    <t>https://population.un.org/wpp/Download/Standard/Population/</t>
-  </si>
-  <si>
-    <t>World Urbanization Prospects: the 2019 revision, ONU</t>
-  </si>
-  <si>
-    <t>https://population.un.org/wup/</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -330,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -433,20 +421,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,13 +452,10 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{554BB7A4-061C-481F-B8CB-26905725DB64}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -631,7 +616,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{1EBA1CDA-42D1-40BE-B110-13494AAC537D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -720,18 +705,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ECF59A3-D2C3-4213-B55E-04FF5651F5AD}" name="Table1" displayName="Table1" ref="B3:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="Sources" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{1626AF5A-0886-451A-8710-C32831BB585B}" name="Sources" dataDxfId="3">
       <calculatedColumnFormula>'[1]Sources (public)'!B35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2">
+    <tableColumn id="2" xr3:uid="{28E1712F-36BE-497D-B53E-0D497ADCEDA0}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2">
       <calculatedColumnFormula>'[1]Sources (public)'!C35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2">
+    <tableColumn id="3" xr3:uid="{7533A448-318F-4DE7-989D-24CE8648F2F1}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2">
       <calculatedColumnFormula>'[1]Sources (public)'!D35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="URL" dataDxfId="0" dataCellStyle="Hyperlink">
+    <tableColumn id="4" xr3:uid="{FCF8875F-EAD7-442D-A4C9-054144962BF2}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink">
       <calculatedColumnFormula>'[1]Sources (public)'!E35</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -756,7 +741,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -768,7 +753,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -815,6 +800,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -850,6 +852,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1001,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D195302-EF71-45C5-8AED-B12EFD347F7C}">
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1046,392 +1065,392 @@
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>92</v>
+        <v>43</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>97</v>
+      <c r="E29" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1439,8 +1458,8 @@
     </row>
     <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="13" t="s">
-        <v>98</v>
+      <c r="B31" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1450,13 +1469,13 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1689,33 +1708,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm"/>
-    <hyperlink ref="E6" r:id="rId3" display="http://worldhappiness.report/"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://worldhappiness.report/"/>
-    <hyperlink ref="D17" r:id="rId5" display="http://worldhappiness.report/"/>
-    <hyperlink ref="E14" r:id="rId6" display="https://www.gallup.com/home.aspx"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://www.gsmaintelligence.com/data/"/>
-    <hyperlink ref="E15" r:id="rId8" display="https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf"/>
-    <hyperlink ref="E22" r:id="rId9" display="http://dataexplorer.wittgensteincentre.org/wcde-v2/"/>
-    <hyperlink ref="E23" r:id="rId10" display="https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about"/>
-    <hyperlink ref="E10" r:id="rId11" display="https://unstats.un.org/unsd/snaama/"/>
-    <hyperlink ref="E13" r:id="rId12" location="data" display="http://www.fao.org/faostat/fr/#data"/>
-    <hyperlink ref="E17" r:id="rId13" display="https://www.globalhungerindex.org/download/all.html"/>
-    <hyperlink ref="E4" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx"/>
-    <hyperlink ref="E20" r:id="rId15" display="https://www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx"/>
-    <hyperlink ref="E5" r:id="rId16" display="https://www.genderindex.org/data/"/>
-    <hyperlink ref="E9" r:id="rId17" display="https://comtrade.un.org/data"/>
-    <hyperlink ref="E8" r:id="rId18" display="http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr"/>
-    <hyperlink ref="E19" r:id="rId19" display="http://data.uis.unesco.org/Index.aspx"/>
-    <hyperlink ref="E12" r:id="rId20" display="http://hdr.undp.org/en/content/human-development-index-hdi"/>
-    <hyperlink ref="E11" r:id="rId21" display="http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://data.worldbank.org/products/wdi"/>
-    <hyperlink ref="E24" r:id="rId23" display="https://population.un.org/wpp/Download/Standard/Population/"/>
-    <hyperlink ref="E25" r:id="rId24" display="https://population.un.org/wup/"/>
-    <hyperlink ref="B31" r:id="rId25" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
-    <hyperlink ref="B33" r:id="rId26"/>
-    <hyperlink ref="B34" r:id="rId27" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F5779CB6-D9BC-4A85-BA19-98A9C76414F8}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{E56ECD3F-50A9-4B3F-9EA6-EA874511612F}"/>
+    <hyperlink ref="E6" r:id="rId3" display="http://worldhappiness.report/" xr:uid="{8A509509-7602-487B-8D59-CC0A6352FF1B}"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://worldhappiness.report/" xr:uid="{A851E98E-0046-4E40-9133-14C66CA8705A}"/>
+    <hyperlink ref="D17" r:id="rId5" display="http://worldhappiness.report/" xr:uid="{BB01F8B1-0A30-4261-A543-373A273E5438}"/>
+    <hyperlink ref="E14" r:id="rId6" display="https://www.gallup.com/home.aspx" xr:uid="{B9F7763D-B26B-45F5-A637-B5C456013326}"/>
+    <hyperlink ref="E7" r:id="rId7" display="https://www.gsmaintelligence.com/data/" xr:uid="{F01BF4CD-334B-4457-BE1C-5E9A40F9C025}"/>
+    <hyperlink ref="E15" r:id="rId8" display="https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf" xr:uid="{E9558685-8068-4FFD-A5B6-F76B33FD4AF0}"/>
+    <hyperlink ref="E22" r:id="rId9" display="http://dataexplorer.wittgensteincentre.org/wcde-v2/" xr:uid="{DB436656-6DC1-43B8-80C8-270BC9D7E368}"/>
+    <hyperlink ref="E23" r:id="rId10" display="https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about" xr:uid="{E6F3ED74-9681-4B3C-BFA2-4D32AC49B018}"/>
+    <hyperlink ref="E10" r:id="rId11" display="https://unstats.un.org/unsd/snaama/" xr:uid="{9595BD97-C4EA-4029-AF1A-EFC6993CFDF1}"/>
+    <hyperlink ref="E13" r:id="rId12" location="data" display="http://www.fao.org/faostat/fr/#data" xr:uid="{83CF751E-BC80-457C-A281-E0BCD947F83B}"/>
+    <hyperlink ref="E17" r:id="rId13" display="https://www.globalhungerindex.org/download/all.html" xr:uid="{FB7E0E66-E745-4DB1-9FDA-BDCC0765E785}"/>
+    <hyperlink ref="E4" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4DF9ACBB-3493-4E1E-903E-8E3923BB5FE0}"/>
+    <hyperlink ref="E20" r:id="rId15" display="https://www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx" xr:uid="{2C0AFFD4-EFD3-4136-9BB8-F717CB885941}"/>
+    <hyperlink ref="E5" r:id="rId16" display="https://www.genderindex.org/data/" xr:uid="{0B72F3B7-1C60-43AB-BECE-6643A0273F3F}"/>
+    <hyperlink ref="E9" r:id="rId17" display="https://comtrade.un.org/data" xr:uid="{4ADF37BF-72FE-4D92-A741-11D99DBC6D11}"/>
+    <hyperlink ref="E8" r:id="rId18" display="http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr" xr:uid="{6D6455FA-25F2-4330-9B29-51035EE8DD4B}"/>
+    <hyperlink ref="E19" r:id="rId19" display="http://data.uis.unesco.org/Index.aspx" xr:uid="{B137A917-968A-4FDE-9FC8-FC5944020534}"/>
+    <hyperlink ref="E12" r:id="rId20" display="http://hdr.undp.org/en/content/human-development-index-hdi" xr:uid="{87834107-8549-47C0-81B5-3C8327215C0C}"/>
+    <hyperlink ref="E11" r:id="rId21" display="http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data" xr:uid="{B33C5DFA-AF10-4194-919E-DDAF709E3C99}"/>
+    <hyperlink ref="E16" r:id="rId22" display="https://data.worldbank.org/products/wdi" xr:uid="{60E7D954-D157-4B63-A2C0-4137EB6ED333}"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://population.un.org/wpp/Download/Standard/Population/" xr:uid="{DF8C42C1-C3C9-4E43-B239-23B8FF7CD598}"/>
+    <hyperlink ref="E25" r:id="rId24" display="https://population.un.org/wup/" xr:uid="{3C726EB7-D9B3-49C1-BBE3-C48574904B2C}"/>
+    <hyperlink ref="B31" r:id="rId25" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{37CA4851-C4B6-4AF4-B5CC-09EB9385986B}"/>
+    <hyperlink ref="B33" r:id="rId26" xr:uid="{5AC3388D-8D49-4762-953D-00234BD5B797}"/>
+    <hyperlink ref="B34" r:id="rId27" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{7A797B7B-DEAD-4F12-8234-6C52261C7AB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>

--- a/DDAf_2023_Tableau_annexe_sources.xlsx
+++ b/DDAf_2023_Tableau_annexe_sources.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA5084-BC7D-4EB4-884A-07D092E5C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8200485A-86E1-44B4-9648-9F18691668FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE82EF6A-2D1A-422E-AC52-5290079C5A18}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{B54B6729-9FFA-4BB1-A6D9-43B5BE81D8A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -69,24 +68,12 @@
     <t>Centre d'Etudes Prospectives et d'Informations Internationales (CEPII)</t>
   </si>
   <si>
-    <t>Mise à jour le 19 février, 2021</t>
+    <t>Mise à jour le 01/02/2023</t>
   </si>
   <si>
     <t>http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
-    <t>Base de données CNUCED-Eora sur la chaîne de valeur mondiale (CVM)</t>
-  </si>
-  <si>
-    <t>CNUCED et Eora</t>
-  </si>
-  <si>
-    <t>Mise à jour le 01/09/2021</t>
-  </si>
-  <si>
-    <t>https://worldmrio.com/unctadgvc/</t>
-  </si>
-  <si>
     <t>Base de données des coûts commerciaux CESAP-Banque mondiale</t>
   </si>
   <si>
@@ -177,21 +164,12 @@
     <t>Division de statistique des Nations Unies (UNSD)</t>
   </si>
   <si>
-    <t>Mise en ligne décembre 2020</t>
+    <t>Mise en ligne janvier 2023</t>
   </si>
   <si>
     <t>https://unstats.un.org/unsd/snaama/</t>
   </si>
   <si>
-    <t>Données de la Banque mondiale sur les migrations et les envois de fonds</t>
-  </si>
-  <si>
-    <t>Mai 2021</t>
-  </si>
-  <si>
-    <t>http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
-  </si>
-  <si>
     <t>Données en ligne sur le développement humain du Programme des Nations Unies pour le développement</t>
   </si>
   <si>
@@ -201,13 +179,37 @@
     <t>http://hdr.undp.org/en/content/human-development-index-hdi</t>
   </si>
   <si>
+    <t>Ensemble de données en ligne sur les émissions de GES provenant de la combustion de carburant (résumé)</t>
+  </si>
+  <si>
+    <t>Agence internationale de l'énergie (AIE)</t>
+  </si>
+  <si>
+    <t>Récupéré le 23/09/2022</t>
+  </si>
+  <si>
+    <t>http://dotstat.oecd.org/Index.aspx?DataSetCode=GHG#</t>
+  </si>
+  <si>
+    <t>Ensemble de données OCDE/GBD sur la mortalité, la morbidité et le coût pour le bien-être de l'exposition aux risques liés à l'environnement</t>
+  </si>
+  <si>
+    <t>OCDE et Institute for Health Metrics and Evaluation</t>
+  </si>
+  <si>
+    <t>Mis à jour le 20/12/2022</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
+  </si>
+  <si>
     <t>FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture</t>
   </si>
   <si>
     <t>Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO)</t>
   </si>
   <si>
-    <t>Récupéré 18/11/2021</t>
+    <t>Récupéré 24/10/2022</t>
   </si>
   <si>
     <t>http://www.fao.org/faostat/fr/#data</t>
@@ -225,6 +227,39 @@
     <t>https://www.gallup.com/home.aspx</t>
   </si>
   <si>
+    <t xml:space="preserve">Global Knowledge Partnership on Migration and Development (KNOMAD) </t>
+  </si>
+  <si>
+    <t>Banque mondiale-KNOMAD</t>
+  </si>
+  <si>
+    <t>Novembre 2022</t>
+  </si>
+  <si>
+    <t>www.knomad.org/</t>
+  </si>
+  <si>
+    <t>IMF Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
+  </si>
+  <si>
+    <t>Fonds monétaire international (FMI)</t>
+  </si>
+  <si>
+    <t>Mis à jour le 22/11/2022</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=7A51304B-6426-40C0-83DD-CA473CA1FD52</t>
+  </si>
+  <si>
+    <t>IMF Investment and Capital Stock (ICSD)</t>
+  </si>
+  <si>
+    <t>Mis à jour le 15/06/2022</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
+  </si>
+  <si>
     <t>Index du commerce électronique B2C de la CNUCED</t>
   </si>
   <si>
@@ -249,16 +284,13 @@
     <t>https://www.globalhungerindex.org/download/all.html</t>
   </si>
   <si>
-    <t>L'Étude ISO sur les certifications</t>
-  </si>
-  <si>
-    <t>Organisation internationale de normalisation</t>
-  </si>
-  <si>
-    <t>Mis à jour le 06/09/2021</t>
-  </si>
-  <si>
-    <t>https://www.iso.org/fr/the-iso-survey.html</t>
+    <t>Microdonnées de l'enquête de la Banque mondiale auprès des entreprises</t>
+  </si>
+  <si>
+    <t>Récupéré avril 2020</t>
+  </si>
+  <si>
+    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
   </si>
   <si>
     <t>Organisation internationale du Travail - ILOSTAT</t>
@@ -273,6 +305,18 @@
     <t>https://ilostat.ilo.org/fr/</t>
   </si>
   <si>
+    <t>Renewable Energy Statistics 2022</t>
+  </si>
+  <si>
+    <t>Agence internationale des énergies renouvelables (IRENA)</t>
+  </si>
+  <si>
+    <t>Récupéré le 10/06/2022</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Données</t>
+  </si>
+  <si>
     <t>UNESCO Institute for Statistics (UIS) Database</t>
   </si>
   <si>
@@ -294,16 +338,25 @@
     <t>https://www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx</t>
   </si>
   <si>
-    <t>Wittgenstein Centre Human Capital Data Explorer</t>
-  </si>
-  <si>
-    <t>Wittgenstein Centre for Demography and Global Human Capital</t>
+    <t>World Population Prospects: the 2022 revision, ONU</t>
+  </si>
+  <si>
+    <t>Nations Unies, Département des affaires économiques et sociales, Division de la population</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>https://population.un.org/wpp/Download/Standard/Population/</t>
+  </si>
+  <si>
+    <t>World Urbanization Prospects 2018, ONU</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>https://population.un.org/wup/</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -323,7 +376,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,13 +426,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <u/>
@@ -421,7 +467,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -446,16 +492,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{554BB7A4-061C-481F-B8CB-26905725DB64}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{EFFFB60C-8673-4390-8AC3-C5A58BCEAAF4}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -536,6 +576,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -582,7 +623,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE1F0DE"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -616,7 +657,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{1EBA1CDA-42D1-40BE-B110-13494AAC537D}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{4D8EA386-B573-46E1-BBBE-90E69ACCD6F2}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -633,92 +674,13 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Output files"/>
-      <sheetName val="Refperiod (Statworks)"/>
-      <sheetName val="Table names (Statworks)"/>
-      <sheetName val="FDI Descriptions"/>
-      <sheetName val="Var descriptions (Statworks)"/>
-      <sheetName val="Indcode conversion"/>
-      <sheetName val="github, bit.ly"/>
-      <sheetName val="Code conversion"/>
-      <sheetName val="Indicators (EN raw data)"/>
-      <sheetName val="Indicateurs (FR raw data)"/>
-      <sheetName val="Indicators trad"/>
-      <sheetName val="IndCodes (Statworks)"/>
-      <sheetName val="AfDD_DDAf_2022_TabInds (CSV)"/>
-      <sheetName val="Variable titles trad"/>
-      <sheetName val="Check IndCodes (EN)"/>
-      <sheetName val="CntryPays (Statworks)"/>
-      <sheetName val="CYC variables"/>
-      <sheetName val="AfDD_DDAf_2022_CntryPays (CSV)"/>
-      <sheetName val="Country groupings trad"/>
-      <sheetName val="Sources (public)"/>
-      <sheetName val="Source trad"/>
-      <sheetName val="Indicators tab"/>
-      <sheetName val="Extracted column headings"/>
-      <sheetName val="Combine extracted &amp; Indicators"/>
-      <sheetName val="From To SW &amp; AfDD_DDAf"/>
-      <sheetName val="IndCode Changes"/>
-      <sheetName val="Top exports by country and year"/>
-      <sheetName val="Sources (private)"/>
-      <sheetName val="WebSites"/>
-      <sheetName val="Names, indicators, metadata, 20"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ECF59A3-D2C3-4213-B55E-04FF5651F5AD}" name="Table1" displayName="Table1" ref="B3:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F57EEE4-5D4B-4AC6-94F2-7B32C7D8BCDC}" name="Table1" displayName="Table1" ref="B3:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1626AF5A-0886-451A-8710-C32831BB585B}" name="Sources" dataDxfId="3">
-      <calculatedColumnFormula>'[1]Sources (public)'!B35</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{28E1712F-36BE-497D-B53E-0D497ADCEDA0}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2">
-      <calculatedColumnFormula>'[1]Sources (public)'!C35</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{7533A448-318F-4DE7-989D-24CE8648F2F1}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2">
-      <calculatedColumnFormula>'[1]Sources (public)'!D35</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{FCF8875F-EAD7-442D-A4C9-054144962BF2}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink">
-      <calculatedColumnFormula>'[1]Sources (public)'!E35</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{AFCC6C49-3BB2-4D1E-A9A1-605FC07230D7}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{696AFA86-C8E4-4E89-ADA5-6B2469E24BF9}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{3EAABCFB-7815-48A9-961F-499883E93620}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{3B643FD8-9538-4693-A4DF-B4CF3B3EA013}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,7 +982,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D195302-EF71-45C5-8AED-B12EFD347F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0D1A96-AA67-473F-B545-C5E5C863876F}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1065,424 +1028,448 @@
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
-        <v>33</v>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="12" t="s">
-        <v>90</v>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
-      <c r="B33" s="2" t="s">
-        <v>91</v>
+      <c r="B33" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
+      <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
@@ -1708,38 +1695,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F5779CB6-D9BC-4A85-BA19-98A9C76414F8}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{E56ECD3F-50A9-4B3F-9EA6-EA874511612F}"/>
-    <hyperlink ref="E6" r:id="rId3" display="http://worldhappiness.report/" xr:uid="{8A509509-7602-487B-8D59-CC0A6352FF1B}"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://worldhappiness.report/" xr:uid="{A851E98E-0046-4E40-9133-14C66CA8705A}"/>
-    <hyperlink ref="D17" r:id="rId5" display="http://worldhappiness.report/" xr:uid="{BB01F8B1-0A30-4261-A543-373A273E5438}"/>
-    <hyperlink ref="E14" r:id="rId6" display="https://www.gallup.com/home.aspx" xr:uid="{B9F7763D-B26B-45F5-A637-B5C456013326}"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://www.gsmaintelligence.com/data/" xr:uid="{F01BF4CD-334B-4457-BE1C-5E9A40F9C025}"/>
-    <hyperlink ref="E15" r:id="rId8" display="https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf" xr:uid="{E9558685-8068-4FFD-A5B6-F76B33FD4AF0}"/>
-    <hyperlink ref="E22" r:id="rId9" display="http://dataexplorer.wittgensteincentre.org/wcde-v2/" xr:uid="{DB436656-6DC1-43B8-80C8-270BC9D7E368}"/>
-    <hyperlink ref="E23" r:id="rId10" display="https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about" xr:uid="{E6F3ED74-9681-4B3C-BFA2-4D32AC49B018}"/>
-    <hyperlink ref="E10" r:id="rId11" display="https://unstats.un.org/unsd/snaama/" xr:uid="{9595BD97-C4EA-4029-AF1A-EFC6993CFDF1}"/>
-    <hyperlink ref="E13" r:id="rId12" location="data" display="http://www.fao.org/faostat/fr/#data" xr:uid="{83CF751E-BC80-457C-A281-E0BCD947F83B}"/>
-    <hyperlink ref="E17" r:id="rId13" display="https://www.globalhungerindex.org/download/all.html" xr:uid="{FB7E0E66-E745-4DB1-9FDA-BDCC0765E785}"/>
-    <hyperlink ref="E4" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4DF9ACBB-3493-4E1E-903E-8E3923BB5FE0}"/>
-    <hyperlink ref="E20" r:id="rId15" display="https://www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx" xr:uid="{2C0AFFD4-EFD3-4136-9BB8-F717CB885941}"/>
-    <hyperlink ref="E5" r:id="rId16" display="https://www.genderindex.org/data/" xr:uid="{0B72F3B7-1C60-43AB-BECE-6643A0273F3F}"/>
-    <hyperlink ref="E9" r:id="rId17" display="https://comtrade.un.org/data" xr:uid="{4ADF37BF-72FE-4D92-A741-11D99DBC6D11}"/>
-    <hyperlink ref="E8" r:id="rId18" display="http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr" xr:uid="{6D6455FA-25F2-4330-9B29-51035EE8DD4B}"/>
-    <hyperlink ref="E19" r:id="rId19" display="http://data.uis.unesco.org/Index.aspx" xr:uid="{B137A917-968A-4FDE-9FC8-FC5944020534}"/>
-    <hyperlink ref="E12" r:id="rId20" display="http://hdr.undp.org/en/content/human-development-index-hdi" xr:uid="{87834107-8549-47C0-81B5-3C8327215C0C}"/>
-    <hyperlink ref="E11" r:id="rId21" display="http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data" xr:uid="{B33C5DFA-AF10-4194-919E-DDAF709E3C99}"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://data.worldbank.org/products/wdi" xr:uid="{60E7D954-D157-4B63-A2C0-4137EB6ED333}"/>
-    <hyperlink ref="E24" r:id="rId23" display="https://population.un.org/wpp/Download/Standard/Population/" xr:uid="{DF8C42C1-C3C9-4E43-B239-23B8FF7CD598}"/>
-    <hyperlink ref="E25" r:id="rId24" display="https://population.un.org/wup/" xr:uid="{3C726EB7-D9B3-49C1-BBE3-C48574904B2C}"/>
-    <hyperlink ref="B31" r:id="rId25" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{37CA4851-C4B6-4AF4-B5CC-09EB9385986B}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{5AC3388D-8D49-4762-953D-00234BD5B797}"/>
-    <hyperlink ref="B34" r:id="rId27" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{7A797B7B-DEAD-4F12-8234-6C52261C7AB5}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7F15B3B5-C5AB-4959-B5A9-3DC845F7EA62}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{6C2C265A-825F-4260-B251-A8CED89B0943}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B77BC9FE-4A5C-4944-B2D9-0680B01B9A30}"/>
+    <hyperlink ref="B33" r:id="rId4" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{DC72D6D7-56E3-4700-B084-60DF01B04EE7}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{80ECFAC9-805F-4BB1-8C35-1580EAEDDFC5}"/>
+    <hyperlink ref="B36" r:id="rId6" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{3804F12E-D53F-4CA2-A424-4D52CF0D8CA5}"/>
+    <hyperlink ref="E5" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D8C1891B-235B-4D8C-9A72-9578EDCFECCD}"/>
+    <hyperlink ref="E6" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D6665D2B-8B19-4526-B0B5-9A64FA90F6B9}"/>
+    <hyperlink ref="E7" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{39221C49-11A1-4309-BAC8-2161B4D7BEF7}"/>
+    <hyperlink ref="E8" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7840A9D4-B8CB-49C3-A13D-7F338F7EA077}"/>
+    <hyperlink ref="E9" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AD4E4540-E993-43B8-B950-A57FD011E885}"/>
+    <hyperlink ref="E10" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EFE3F93C-2D2F-43E4-A639-0F0DAD546922}"/>
+    <hyperlink ref="E11" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{15044C83-999F-460A-9E0B-6E300865FC2B}"/>
+    <hyperlink ref="E12" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B0EEB390-4542-4D8C-B4CF-8543278E7310}"/>
+    <hyperlink ref="E13" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{52B0E5E7-E8C9-4B2A-B950-ECEAB476A6F6}"/>
+    <hyperlink ref="E14" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{633FB403-1719-428D-A379-1D8D2195306F}"/>
+    <hyperlink ref="E15" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AB174275-65CB-4018-8926-913C9CC628DF}"/>
+    <hyperlink ref="E16" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A2741F04-6D8E-49ED-BEE6-D8F1BEDBE24A}"/>
+    <hyperlink ref="E17" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{96EF6D0E-4F1A-438A-AAB7-8D1E6706ACD3}"/>
+    <hyperlink ref="E18" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AC9299CE-481B-4FA4-8CEA-0CB529B2F8FE}"/>
+    <hyperlink ref="E19" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6C746D7F-65E8-4917-B227-395C01F03612}"/>
+    <hyperlink ref="E20" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{734FE65A-025C-45BC-9C35-DCEA933F8DF0}"/>
+    <hyperlink ref="E21" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F46CBFA5-DB05-4D6F-B7C4-B918CD4DD442}"/>
+    <hyperlink ref="E22" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FC85C227-7399-4B6E-BEF9-32B61A7397CC}"/>
+    <hyperlink ref="E23" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{94B3542E-1967-484D-BB0C-277CFDB699A8}"/>
+    <hyperlink ref="E24" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{65BE5236-BC7F-4BBE-861D-2F745CF7CCBF}"/>
+    <hyperlink ref="E25" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B8F6B018-A973-45A3-9750-D44E6424798E}"/>
+    <hyperlink ref="E26" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AFE5DE09-B642-409B-9131-802753AEE0B7}"/>
+    <hyperlink ref="E27" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E5FD5101-AF80-40E9-9BB4-A311809A5423}"/>
+    <hyperlink ref="E28" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7D2D1B76-07BC-4ACE-83F2-2B5369A3E796}"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{69B147B8-1774-4CEB-AC3D-F996EDD5B3A1}"/>
+    <hyperlink ref="E30" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BF30D65D-6F7E-4C15-BD9E-A025BE6F8BFA}"/>
+    <hyperlink ref="E31" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CFC88ABE-26E2-4873-8D74-EEC05BA0FD34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_sources.xlsx
+++ b/DDAf_2023_Tableau_annexe_sources.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8200485A-86E1-44B4-9648-9F18691668FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5E60C-7652-4C66-B687-D88EEECCB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{B54B6729-9FFA-4BB1-A6D9-43B5BE81D8A6}"/>
+    <workbookView xWindow="31080" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{B7181F3B-1DE0-452D-8CD4-6BCF7933D2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{EFFFB60C-8673-4390-8AC3-C5A58BCEAAF4}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{CFD43E68-F23F-4CEA-8E9E-3B9DF88EC74B}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -657,7 +657,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{4D8EA386-B573-46E1-BBBE-90E69ACCD6F2}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{96DBBA96-1EB8-4391-8CDE-11F5BB6B4467}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -675,12 +675,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F57EEE4-5D4B-4AC6-94F2-7B32C7D8BCDC}" name="Table1" displayName="Table1" ref="B3:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F567-5C5F-4D54-A20F-E3379AD7BCF1}" name="Table1" displayName="Table1" ref="B3:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AFCC6C49-3BB2-4D1E-A9A1-605FC07230D7}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{696AFA86-C8E4-4E89-ADA5-6B2469E24BF9}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" xr3:uid="{3EAABCFB-7815-48A9-961F-499883E93620}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{3B643FD8-9538-4693-A4DF-B4CF3B3EA013}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{7DE45EFA-0A29-42B9-A65E-8468061489D1}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5FBB361B-D6C7-42F5-84E9-3FB0D90586E8}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{8453C1DC-FCB4-4CF2-B93F-E7A389303300}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{83BBFE09-AE83-43A9-8E21-51A53AD118EB}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,8 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0D1A96-AA67-473F-B545-C5E5C863876F}">
-  <sheetPr codeName="Sheet22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDE945C-E7ED-4180-8343-8D0FF843F249}">
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1695,39 +1694,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7F15B3B5-C5AB-4959-B5A9-3DC845F7EA62}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{6C2C265A-825F-4260-B251-A8CED89B0943}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B77BC9FE-4A5C-4944-B2D9-0680B01B9A30}"/>
-    <hyperlink ref="B33" r:id="rId4" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{DC72D6D7-56E3-4700-B084-60DF01B04EE7}"/>
-    <hyperlink ref="B35" r:id="rId5" xr:uid="{80ECFAC9-805F-4BB1-8C35-1580EAEDDFC5}"/>
-    <hyperlink ref="B36" r:id="rId6" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{3804F12E-D53F-4CA2-A424-4D52CF0D8CA5}"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D8C1891B-235B-4D8C-9A72-9578EDCFECCD}"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D6665D2B-8B19-4526-B0B5-9A64FA90F6B9}"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{39221C49-11A1-4309-BAC8-2161B4D7BEF7}"/>
-    <hyperlink ref="E8" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7840A9D4-B8CB-49C3-A13D-7F338F7EA077}"/>
-    <hyperlink ref="E9" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AD4E4540-E993-43B8-B950-A57FD011E885}"/>
-    <hyperlink ref="E10" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EFE3F93C-2D2F-43E4-A639-0F0DAD546922}"/>
-    <hyperlink ref="E11" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{15044C83-999F-460A-9E0B-6E300865FC2B}"/>
-    <hyperlink ref="E12" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B0EEB390-4542-4D8C-B4CF-8543278E7310}"/>
-    <hyperlink ref="E13" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{52B0E5E7-E8C9-4B2A-B950-ECEAB476A6F6}"/>
-    <hyperlink ref="E14" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{633FB403-1719-428D-A379-1D8D2195306F}"/>
-    <hyperlink ref="E15" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AB174275-65CB-4018-8926-913C9CC628DF}"/>
-    <hyperlink ref="E16" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A2741F04-6D8E-49ED-BEE6-D8F1BEDBE24A}"/>
-    <hyperlink ref="E17" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{96EF6D0E-4F1A-438A-AAB7-8D1E6706ACD3}"/>
-    <hyperlink ref="E18" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AC9299CE-481B-4FA4-8CEA-0CB529B2F8FE}"/>
-    <hyperlink ref="E19" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6C746D7F-65E8-4917-B227-395C01F03612}"/>
-    <hyperlink ref="E20" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{734FE65A-025C-45BC-9C35-DCEA933F8DF0}"/>
-    <hyperlink ref="E21" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F46CBFA5-DB05-4D6F-B7C4-B918CD4DD442}"/>
-    <hyperlink ref="E22" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FC85C227-7399-4B6E-BEF9-32B61A7397CC}"/>
-    <hyperlink ref="E23" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{94B3542E-1967-484D-BB0C-277CFDB699A8}"/>
-    <hyperlink ref="E24" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{65BE5236-BC7F-4BBE-861D-2F745CF7CCBF}"/>
-    <hyperlink ref="E25" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B8F6B018-A973-45A3-9750-D44E6424798E}"/>
-    <hyperlink ref="E26" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AFE5DE09-B642-409B-9131-802753AEE0B7}"/>
-    <hyperlink ref="E27" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E5FD5101-AF80-40E9-9BB4-A311809A5423}"/>
-    <hyperlink ref="E28" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7D2D1B76-07BC-4ACE-83F2-2B5369A3E796}"/>
-    <hyperlink ref="E29" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{69B147B8-1774-4CEB-AC3D-F996EDD5B3A1}"/>
-    <hyperlink ref="E30" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BF30D65D-6F7E-4C15-BD9E-A025BE6F8BFA}"/>
-    <hyperlink ref="E31" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CFC88ABE-26E2-4873-8D74-EEC05BA0FD34}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B7665350-25AE-4F16-B0E5-DC3B52B286E1}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{3032BB88-B8FD-48E1-9670-D14BB7BC22C8}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A409B8A5-1324-43E6-8199-6812C547CDDC}"/>
+    <hyperlink ref="B33" r:id="rId4" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{3A1EDD9C-FA73-40B9-ABFF-BF249A1755AD}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{6E73C17B-09C2-4839-BF0A-97D6424E4053}"/>
+    <hyperlink ref="B36" r:id="rId6" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{F507278B-05F7-4A4A-9890-E5A1E8999F11}"/>
+    <hyperlink ref="E5" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BB29BA3B-7345-43AA-904F-BD41C0BE532C}"/>
+    <hyperlink ref="E6" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BB6EF3BA-59D5-43AF-BF54-D69A4E2CF253}"/>
+    <hyperlink ref="E7" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{12931F6D-8593-431A-A109-81F85A31E9BF}"/>
+    <hyperlink ref="E8" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F9BAD02B-FD05-4CEE-96FD-5D4C8D5575E9}"/>
+    <hyperlink ref="E9" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E8A0DBA4-1129-487D-BD0C-2132CB7883BE}"/>
+    <hyperlink ref="E10" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9F4B543A-C4BD-4FA1-A9A9-497F33532767}"/>
+    <hyperlink ref="E11" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4DF76036-4A71-4070-A0B2-66C964BE7FD2}"/>
+    <hyperlink ref="E12" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8FD5AD11-2BEB-4820-91B6-67CFC6F7F36B}"/>
+    <hyperlink ref="E13" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1E793C22-3102-4DFD-ABD3-5D4064EE7849}"/>
+    <hyperlink ref="E14" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E185330B-70B0-4593-80F8-351528DEA33D}"/>
+    <hyperlink ref="E15" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0F630DD3-F40D-43CE-AC0C-A721BF0565C4}"/>
+    <hyperlink ref="E16" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{67D751A3-684B-4C8C-9D8C-2D22FF1C3A09}"/>
+    <hyperlink ref="E17" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{781B6C4A-43A0-4D0A-88D7-6EF60B0F1778}"/>
+    <hyperlink ref="E18" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EC49EC57-F018-4DE9-AF0F-522426364F23}"/>
+    <hyperlink ref="E19" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{70097DC7-D8D6-4EA2-BB75-CBD94EA7FB3C}"/>
+    <hyperlink ref="E20" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{41BA6342-FE80-4DE2-9101-0D386F017A6F}"/>
+    <hyperlink ref="E21" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F7EBEEDF-104D-4961-A5AF-257CB841D013}"/>
+    <hyperlink ref="E22" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A6919D5B-1165-47B9-8C6A-F07EFAF3A9D2}"/>
+    <hyperlink ref="E23" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{391B4BEE-54ED-4607-8AF6-59AEF66D6F3E}"/>
+    <hyperlink ref="E24" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{15921743-F914-4621-B988-CE3D061F3D1B}"/>
+    <hyperlink ref="E25" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B9230666-E40E-4B44-B412-8DD5FE8B8D68}"/>
+    <hyperlink ref="E26" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C130FFBB-4E4C-4A9C-8769-4DA054F74002}"/>
+    <hyperlink ref="E27" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FA5D5F79-E364-40F5-A569-7C63D1EB8804}"/>
+    <hyperlink ref="E28" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{05A90FAA-4ABF-4062-8CFA-2DCB4539E463}"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7B24BD98-1792-4E58-B760-ECDD0D4C38D2}"/>
+    <hyperlink ref="E30" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1CF93993-AB98-438A-A559-AAF24DD7307B}"/>
+    <hyperlink ref="E31" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CA1E79C6-7A5B-477E-A077-A54C7FD5D74C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>

--- a/DDAf_2023_Tableau_annexe_sources.xlsx
+++ b/DDAf_2023_Tableau_annexe_sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5E60C-7652-4C66-B687-D88EEECCB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206D0A6-BD14-44B9-9208-5E9B9BE8334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{B7181F3B-1DE0-452D-8CD4-6BCF7933D2C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF074E62-09DF-481A-8007-70A2FD19E2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Comité d'aide au développement de l'OCDE (CAD)</t>
   </si>
   <si>
-    <t>Récupéré le 14/09/2021</t>
+    <t>Récupéré le 11/04/2023</t>
   </si>
   <si>
     <t>https://stats-2.oecd.org/Index.aspx?lang=fr&amp;SubSessionId=6a671414-4b8a-437c-8c72-4ae6ef4ea94c&amp;themetreeid=3</t>
@@ -71,271 +71,298 @@
     <t>Mise à jour le 01/02/2023</t>
   </si>
   <si>
-    <t>http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
-  </si>
-  <si>
-    <t>Base de données des coûts commerciaux CESAP-Banque mondiale</t>
+    <t>www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+  </si>
+  <si>
+    <t>CNUCED-Eora Global Value Chains (GVC) base de données</t>
+  </si>
+  <si>
+    <t>CNUCED-Eora</t>
+  </si>
+  <si>
+    <t>Récupéré le 19/11/2022</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+  </si>
+  <si>
+    <t>Comptes nationaux de la Division de statistique des Nations Unies</t>
+  </si>
+  <si>
+    <t>Division de statistique des Nations Unies (UNSD)</t>
+  </si>
+  <si>
+    <t>Mise en ligne janvier 2023</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/unsd/snaama/</t>
+  </si>
+  <si>
+    <t>Coûts commerciaux CESAP-Banque mondiale (base de données)</t>
   </si>
   <si>
     <t>Nations Unies et Banque mondiale</t>
   </si>
   <si>
-    <t>Mis à jour le 01/06/2021</t>
-  </si>
-  <si>
-    <t>https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
-  </si>
-  <si>
-    <t>Base de données des Perspectives de l'économie mondiale du FMI</t>
+    <t>Mis à jour le 17/05/2022</t>
+  </si>
+  <si>
+    <t>www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+  </si>
+  <si>
+    <t>Données en ligne sur le développement humain du Programme des Nations Unies pour le développement</t>
+  </si>
+  <si>
+    <t>PNUD</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>http://hdr.undp.org/en/content/human-development-index-hdi</t>
+  </si>
+  <si>
+    <t>Ensemble de données en ligne sur les émissions de GES provenant de la combustion de carburant (résumé)</t>
+  </si>
+  <si>
+    <t>Agence internationale de l'énergie (AIE)</t>
+  </si>
+  <si>
+    <t>Récupéré le 23/09/2022</t>
+  </si>
+  <si>
+    <t>http://dotstat.oecd.org/Index.aspx?DataSetCode=GHG#</t>
+  </si>
+  <si>
+    <t>Ensemble de données OCDE/GBD sur la mortalité, la morbidité et le coût pour le bien-être de l'exposition aux risques liés à l'environnement</t>
+  </si>
+  <si>
+    <t>OCDE et Institute for Health Metrics and Evaluation</t>
+  </si>
+  <si>
+    <t>Mis à jour le 20/12/2022</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
+  </si>
+  <si>
+    <t>FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture</t>
+  </si>
+  <si>
+    <t>Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO)</t>
+  </si>
+  <si>
+    <t>Récupéré 24/10/2022</t>
+  </si>
+  <si>
+    <t>www.fao.org/faostat/fr/#data</t>
+  </si>
+  <si>
+    <t>FMI Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
+  </si>
+  <si>
+    <t>Fonds monétaire international (FMI)</t>
+  </si>
+  <si>
+    <t>Mis à jour le 22/11/2022</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=7A51304B-6426-40C0-83DD-CA473CA1FD52</t>
+  </si>
+  <si>
+    <t>FMI Investment and Capital Stock (ICSD)</t>
+  </si>
+  <si>
+    <t>Mis à jour le 15/06/2022</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
+  </si>
+  <si>
+    <t>Gallup World Poll</t>
+  </si>
+  <si>
+    <t>The Gallup Organization</t>
+  </si>
+  <si>
+    <t>Consulté le 15 décembre 2020 (payant)</t>
+  </si>
+  <si>
+    <t>www.gallup.com/home.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Knowledge Partnership on Migration and Development (KNOMAD) </t>
+  </si>
+  <si>
+    <t>Banque mondiale-KNOMAD</t>
+  </si>
+  <si>
+    <t>Novembre 2022</t>
+  </si>
+  <si>
+    <t>www.knomad.org/</t>
+  </si>
+  <si>
+    <t>GSMA Intelligence (base de données)</t>
+  </si>
+  <si>
+    <t>GSMA Intelligence</t>
+  </si>
+  <si>
+    <t>Données mises à jour en juin 2020 (payantes)</t>
+  </si>
+  <si>
+    <t>www.gsmaintelligence.com/data/</t>
+  </si>
+  <si>
+    <t>Index du commerce électronique B2C de la CNUCED</t>
+  </si>
+  <si>
+    <t>CNUCED</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf</t>
+  </si>
+  <si>
+    <t>Indicateurs de développement de la Banque mondiale</t>
+  </si>
+  <si>
+    <t>Banque mondiale</t>
+  </si>
+  <si>
+    <t>Mise à jour le 11/05/2023</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/products/wdi</t>
+  </si>
+  <si>
+    <t>Indice de la faim dans le monde (GHI) - IFPRI</t>
+  </si>
+  <si>
+    <t>Welthungerhilfe and Concern Worldwide</t>
+  </si>
+  <si>
+    <t>www.globalhungerindex.org/download/all.html</t>
+  </si>
+  <si>
+    <t>Indice Institutions sociales et égalité des genres (SIGI) 2023 (base de données)</t>
+  </si>
+  <si>
+    <t>Centre de développement de l'OCDE</t>
+  </si>
+  <si>
+    <t>Mars 2023</t>
+  </si>
+  <si>
+    <t>www.genderindex.org/data/</t>
+  </si>
+  <si>
+    <t>Informality Database (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497)</t>
+  </si>
+  <si>
+    <t>Centre for Economic Policy Research</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/research/brief/informal-economy-database</t>
+  </si>
+  <si>
+    <t>L'évolution des richesses des nations 2021</t>
+  </si>
+  <si>
+    <t>27 octobre 2021</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/publication/changing-wealth-of-nations/data</t>
+  </si>
+  <si>
+    <t>Microdonnées de l'enquête de la Banque mondiale auprès des entreprises</t>
+  </si>
+  <si>
+    <t>Récupéré avril 2020</t>
+  </si>
+  <si>
+    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
+  </si>
+  <si>
+    <t>Organisation internationale du Travail - ILOSTAT</t>
+  </si>
+  <si>
+    <t>Organisation Internationale du Travail (OIT)</t>
+  </si>
+  <si>
+    <t>Récupéré le 14/05/2023</t>
+  </si>
+  <si>
+    <t>https://ilostat.ilo.org/fr/</t>
+  </si>
+  <si>
+    <t>Perspectives de l'économie mondiale du FMI (base de données)</t>
   </si>
   <si>
     <t>FMI</t>
   </si>
   <si>
-    <t>Avril 2022 (octobre 2019 pour certains indicateurs)</t>
-  </si>
-  <si>
-    <t>https://www.imf.org/external/pubs/ft/weo/2019/01/weodata/index.aspx</t>
-  </si>
-  <si>
-    <t>Base de données Égalité femmes-hommes, institutions et développement</t>
-  </si>
-  <si>
-    <t>Centre de développement de l'OCDE</t>
-  </si>
-  <si>
-    <t>Décembre 2019</t>
-  </si>
-  <si>
-    <t>https://www.genderindex.org/data/</t>
-  </si>
-  <si>
-    <t>Base de données en ligne du World Happiness Report</t>
+    <t>Avril 2023</t>
+  </si>
+  <si>
+    <t>www.imf.org/external/pubs/ft/weo/2019/01/weodata/index.aspx</t>
+  </si>
+  <si>
+    <t>Renewable Energy Statistics 2022</t>
+  </si>
+  <si>
+    <t>Agence internationale des énergies renouvelables (IRENA)</t>
+  </si>
+  <si>
+    <t>Récupéré le 06/10/2022</t>
+  </si>
+  <si>
+    <t>www.irena.org/Données</t>
+  </si>
+  <si>
+    <t>UNCTADSTAT, Centre de données sur les IDE</t>
+  </si>
+  <si>
+    <t>Récupéré le 21/12/2022</t>
+  </si>
+  <si>
+    <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr</t>
+  </si>
+  <si>
+    <t>UNESCO Institute for Statistics (UIS) Database</t>
+  </si>
+  <si>
+    <t>UNESCO</t>
+  </si>
+  <si>
+    <t>Récupéré le 17/11/2021</t>
+  </si>
+  <si>
+    <t>http://data.uis.unesco.org/Index.aspx</t>
+  </si>
+  <si>
+    <t>Union internationale des télécommunications - Base de données en ligne sur les indicateurs TIC</t>
+  </si>
+  <si>
+    <t>Union internationale des télécommunications</t>
+  </si>
+  <si>
+    <t>Récupéré le 28/05/2023</t>
+  </si>
+  <si>
+    <t>www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx</t>
+  </si>
+  <si>
+    <t>World Happiness Report (base de données)</t>
   </si>
   <si>
     <t>Global Happiness Council (GHC)</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>http://worldhappiness.report/</t>
-  </si>
-  <si>
-    <t>Base de données GSMA Intelligence</t>
-  </si>
-  <si>
-    <t>GSMA Intelligence</t>
-  </si>
-  <si>
-    <t>Données mises à jour en juin 2020 (payantes)</t>
-  </si>
-  <si>
-    <t>https://www.gsmaintelligence.com/data/</t>
-  </si>
-  <si>
-    <t>Base de données sur les CVM du Rapport sur le développement dans le monde 2020 (worldbank.org)</t>
-  </si>
-  <si>
-    <t>Banque mondiale</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
-  </si>
-  <si>
-    <t>Base de données sur les IDE du Centre de données en ligne UNCTADStat</t>
-  </si>
-  <si>
-    <t>CNUCED</t>
-  </si>
-  <si>
-    <t>Récupéré le 17/11/2021</t>
-  </si>
-  <si>
-    <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr</t>
-  </si>
-  <si>
-    <t>Comptes nationaux de la Division de statistique des Nations Unies</t>
-  </si>
-  <si>
-    <t>Division de statistique des Nations Unies (UNSD)</t>
-  </si>
-  <si>
-    <t>Mise en ligne janvier 2023</t>
-  </si>
-  <si>
-    <t>https://unstats.un.org/unsd/snaama/</t>
-  </si>
-  <si>
-    <t>Données en ligne sur le développement humain du Programme des Nations Unies pour le développement</t>
-  </si>
-  <si>
-    <t>PNUD</t>
-  </si>
-  <si>
-    <t>http://hdr.undp.org/en/content/human-development-index-hdi</t>
-  </si>
-  <si>
-    <t>Ensemble de données en ligne sur les émissions de GES provenant de la combustion de carburant (résumé)</t>
-  </si>
-  <si>
-    <t>Agence internationale de l'énergie (AIE)</t>
-  </si>
-  <si>
-    <t>Récupéré le 23/09/2022</t>
-  </si>
-  <si>
-    <t>http://dotstat.oecd.org/Index.aspx?DataSetCode=GHG#</t>
-  </si>
-  <si>
-    <t>Ensemble de données OCDE/GBD sur la mortalité, la morbidité et le coût pour le bien-être de l'exposition aux risques liés à l'environnement</t>
-  </si>
-  <si>
-    <t>OCDE et Institute for Health Metrics and Evaluation</t>
-  </si>
-  <si>
-    <t>Mis à jour le 20/12/2022</t>
-  </si>
-  <si>
-    <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
-  </si>
-  <si>
-    <t>FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture</t>
-  </si>
-  <si>
-    <t>Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO)</t>
-  </si>
-  <si>
-    <t>Récupéré 24/10/2022</t>
-  </si>
-  <si>
-    <t>http://www.fao.org/faostat/fr/#data</t>
-  </si>
-  <si>
-    <t>Gallup World Poll</t>
-  </si>
-  <si>
-    <t>The Gallup Organization</t>
-  </si>
-  <si>
-    <t>Consulté le 15 décembre 2020 (payant)</t>
-  </si>
-  <si>
-    <t>https://www.gallup.com/home.aspx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Knowledge Partnership on Migration and Development (KNOMAD) </t>
-  </si>
-  <si>
-    <t>Banque mondiale-KNOMAD</t>
-  </si>
-  <si>
-    <t>Novembre 2022</t>
-  </si>
-  <si>
-    <t>www.knomad.org/</t>
-  </si>
-  <si>
-    <t>IMF Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
-  </si>
-  <si>
-    <t>Fonds monétaire international (FMI)</t>
-  </si>
-  <si>
-    <t>Mis à jour le 22/11/2022</t>
-  </si>
-  <si>
-    <t>https://data.imf.org/?sk=7A51304B-6426-40C0-83DD-CA473CA1FD52</t>
-  </si>
-  <si>
-    <t>IMF Investment and Capital Stock (ICSD)</t>
-  </si>
-  <si>
-    <t>Mis à jour le 15/06/2022</t>
-  </si>
-  <si>
-    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
-  </si>
-  <si>
-    <t>Index du commerce électronique B2C de la CNUCED</t>
-  </si>
-  <si>
-    <t>https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf</t>
-  </si>
-  <si>
-    <t>Indicateurs de développement de la Banque mondiale</t>
-  </si>
-  <si>
-    <t>Mise à jour le 22/04/2022</t>
-  </si>
-  <si>
-    <t>https://data.worldbank.org/products/wdi</t>
-  </si>
-  <si>
-    <t>Indice de la faim dans le monde (GHI) - IFPRI</t>
-  </si>
-  <si>
-    <t>Welthungerhilfe and Concern Worldwide</t>
-  </si>
-  <si>
-    <t>https://www.globalhungerindex.org/download/all.html</t>
-  </si>
-  <si>
-    <t>Microdonnées de l'enquête de la Banque mondiale auprès des entreprises</t>
-  </si>
-  <si>
-    <t>Récupéré avril 2020</t>
-  </si>
-  <si>
-    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
-  </si>
-  <si>
-    <t>Organisation internationale du Travail - ILOSTAT</t>
-  </si>
-  <si>
-    <t>Organisation Internationale du Travail (OIT)</t>
-  </si>
-  <si>
-    <t>Récupéré le 14/11/2021</t>
-  </si>
-  <si>
-    <t>https://ilostat.ilo.org/fr/</t>
-  </si>
-  <si>
-    <t>Renewable Energy Statistics 2022</t>
-  </si>
-  <si>
-    <t>Agence internationale des énergies renouvelables (IRENA)</t>
-  </si>
-  <si>
-    <t>Récupéré le 10/06/2022</t>
-  </si>
-  <si>
-    <t>https://www.irena.org/Données</t>
-  </si>
-  <si>
-    <t>UNESCO Institute for Statistics (UIS) Database</t>
-  </si>
-  <si>
-    <t>UNESCO</t>
-  </si>
-  <si>
-    <t>http://data.uis.unesco.org/Index.aspx</t>
-  </si>
-  <si>
-    <t>Union internationale des télécommunications - Base de données en ligne sur les indicateurs TIC</t>
-  </si>
-  <si>
-    <t>Union internationale des télécommunications</t>
-  </si>
-  <si>
-    <t>Récupéré le 19/11/2021</t>
-  </si>
-  <si>
-    <t>https://www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx</t>
   </si>
   <si>
     <t>World Population Prospects: the 2022 revision, ONU</t>
@@ -376,7 +403,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +451,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -486,16 +521,16 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{CFD43E68-F23F-4CEA-8E9E-3B9DF88EC74B}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{356451BA-B08B-4591-A69D-C14688F7B913}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -511,9 +546,10 @@
         <shadow val="0"/>
         <u/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="10"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -657,7 +693,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{96DBBA96-1EB8-4391-8CDE-11F5BB6B4467}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{EE28F141-0776-4F38-8B93-F9B37C3DEA42}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -675,12 +711,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F749F567-5C5F-4D54-A20F-E3379AD7BCF1}" name="Table1" displayName="Table1" ref="B3:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AE7050B-65AD-4E65-8453-B16FD3936837}" name="Table1" displayName="Table1" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DE45EFA-0A29-42B9-A65E-8468061489D1}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5FBB361B-D6C7-42F5-84E9-3FB0D90586E8}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" xr3:uid="{8453C1DC-FCB4-4CF2-B93F-E7A389303300}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{83BBFE09-AE83-43A9-8E21-51A53AD118EB}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{7380D97A-3340-455D-8103-0510917E133C}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AF98632F-DF3D-47FA-97DD-F9C0F7FC4EA7}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{69DD1A71-9A40-45ED-969E-D4D18035141C}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{C5D0D8A3-5D24-4642-89F7-7C0B6166C4DA}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,8 +1018,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDE945C-E7ED-4180-8343-8D0FF843F249}">
-  <dimension ref="A1:E110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DA7B-DB0E-4CE6-808E-5A56027B5329}">
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1181,10 +1217,10 @@
         <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>47</v>
@@ -1274,19 +1310,19 @@
         <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>73</v>
@@ -1301,209 +1337,233 @@
         <v>75</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
-      <c r="B33" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
-      <c r="B36" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
@@ -1692,41 +1752,47 @@
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="5"/>
     </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B7665350-25AE-4F16-B0E5-DC3B52B286E1}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{3032BB88-B8FD-48E1-9670-D14BB7BC22C8}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A409B8A5-1324-43E6-8199-6812C547CDDC}"/>
-    <hyperlink ref="B33" r:id="rId4" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{3A1EDD9C-FA73-40B9-ABFF-BF249A1755AD}"/>
-    <hyperlink ref="B35" r:id="rId5" xr:uid="{6E73C17B-09C2-4839-BF0A-97D6424E4053}"/>
-    <hyperlink ref="B36" r:id="rId6" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{F507278B-05F7-4A4A-9890-E5A1E8999F11}"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BB29BA3B-7345-43AA-904F-BD41C0BE532C}"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BB6EF3BA-59D5-43AF-BF54-D69A4E2CF253}"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{12931F6D-8593-431A-A109-81F85A31E9BF}"/>
-    <hyperlink ref="E8" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F9BAD02B-FD05-4CEE-96FD-5D4C8D5575E9}"/>
-    <hyperlink ref="E9" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E8A0DBA4-1129-487D-BD0C-2132CB7883BE}"/>
-    <hyperlink ref="E10" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9F4B543A-C4BD-4FA1-A9A9-497F33532767}"/>
-    <hyperlink ref="E11" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4DF76036-4A71-4070-A0B2-66C964BE7FD2}"/>
-    <hyperlink ref="E12" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8FD5AD11-2BEB-4820-91B6-67CFC6F7F36B}"/>
-    <hyperlink ref="E13" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1E793C22-3102-4DFD-ABD3-5D4064EE7849}"/>
-    <hyperlink ref="E14" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E185330B-70B0-4593-80F8-351528DEA33D}"/>
-    <hyperlink ref="E15" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0F630DD3-F40D-43CE-AC0C-A721BF0565C4}"/>
-    <hyperlink ref="E16" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{67D751A3-684B-4C8C-9D8C-2D22FF1C3A09}"/>
-    <hyperlink ref="E17" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{781B6C4A-43A0-4D0A-88D7-6EF60B0F1778}"/>
-    <hyperlink ref="E18" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EC49EC57-F018-4DE9-AF0F-522426364F23}"/>
-    <hyperlink ref="E19" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{70097DC7-D8D6-4EA2-BB75-CBD94EA7FB3C}"/>
-    <hyperlink ref="E20" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{41BA6342-FE80-4DE2-9101-0D386F017A6F}"/>
-    <hyperlink ref="E21" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F7EBEEDF-104D-4961-A5AF-257CB841D013}"/>
-    <hyperlink ref="E22" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A6919D5B-1165-47B9-8C6A-F07EFAF3A9D2}"/>
-    <hyperlink ref="E23" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{391B4BEE-54ED-4607-8AF6-59AEF66D6F3E}"/>
-    <hyperlink ref="E24" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{15921743-F914-4621-B988-CE3D061F3D1B}"/>
-    <hyperlink ref="E25" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B9230666-E40E-4B44-B412-8DD5FE8B8D68}"/>
-    <hyperlink ref="E26" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C130FFBB-4E4C-4A9C-8769-4DA054F74002}"/>
-    <hyperlink ref="E27" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FA5D5F79-E364-40F5-A569-7C63D1EB8804}"/>
-    <hyperlink ref="E28" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{05A90FAA-4ABF-4062-8CFA-2DCB4539E463}"/>
-    <hyperlink ref="E29" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7B24BD98-1792-4E58-B760-ECDD0D4C38D2}"/>
-    <hyperlink ref="E30" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1CF93993-AB98-438A-A559-AAF24DD7307B}"/>
-    <hyperlink ref="E31" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CA1E79C6-7A5B-477E-A077-A54C7FD5D74C}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{52C8FDE3-02F2-4617-8AC4-4F9E2AE3B932}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{E76AF8EE-9DF1-4F64-9D15-F5A40F3DD9FC}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E9547057-37A8-4C6E-A0AC-C2184ACBB7E1}"/>
+    <hyperlink ref="B35" r:id="rId4" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{5AF2AC08-3A98-4007-BF85-9B918991F92F}"/>
+    <hyperlink ref="B37" r:id="rId5" xr:uid="{73D8AB86-46B2-4D82-8108-3B6B9898B7E9}"/>
+    <hyperlink ref="B38" r:id="rId6" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{6E2C2286-CDC4-484C-AD53-194D21018B18}"/>
+    <hyperlink ref="E5" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7E574EB1-CA81-4A7D-AB31-5C8673036B52}"/>
+    <hyperlink ref="E6" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A1E03209-2256-41C1-8DA1-12F482BEA330}"/>
+    <hyperlink ref="E7" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{065273F7-FA35-4A2D-97D5-4BFB22FB5071}"/>
+    <hyperlink ref="E8" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EF7935A9-49F8-4F41-80B8-0CBE5E93A024}"/>
+    <hyperlink ref="E9" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2B90155D-7381-423E-981B-FABAB84AE099}"/>
+    <hyperlink ref="E10" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F9AA31EA-D63C-4088-A18F-BC3DE74B2810}"/>
+    <hyperlink ref="E11" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F469DF47-5E78-4ABB-ABDF-644026B94DE9}"/>
+    <hyperlink ref="E12" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{40601511-7BFE-490B-AF95-D4B213B88A23}"/>
+    <hyperlink ref="E13" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7E7451D0-02E8-468D-94CB-1D89E48018E0}"/>
+    <hyperlink ref="E14" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{93B584AA-E1BE-47A6-9629-12B09624A77E}"/>
+    <hyperlink ref="E15" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0929C542-C965-4F05-A646-0961330B1EB7}"/>
+    <hyperlink ref="E16" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{056E9386-5D81-4B89-AD5C-56559205750C}"/>
+    <hyperlink ref="E17" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FE471EBB-84BB-4319-8B4F-95EC18D3FC05}"/>
+    <hyperlink ref="E18" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5A44A625-FB23-43F8-B461-D547637C1B06}"/>
+    <hyperlink ref="E19" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F1E8B48A-CD02-469E-A91B-2219FE2282ED}"/>
+    <hyperlink ref="E20" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{432A33EC-442D-4E1D-9264-98B24F3A78F6}"/>
+    <hyperlink ref="E21" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FC50FADD-3945-461D-84D8-2207CD35BF03}"/>
+    <hyperlink ref="E22" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A8028032-1AAC-42D0-A58F-3EB298520DFB}"/>
+    <hyperlink ref="E23" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1E47887C-9C91-40DE-8B04-1133B2322060}"/>
+    <hyperlink ref="E24" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{05A1D1A6-5D86-414F-9F29-F9418B9E4BAA}"/>
+    <hyperlink ref="E25" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BC9B1144-7A19-4D4D-9FE6-03759A0B5B7F}"/>
+    <hyperlink ref="E26" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5DE55AC9-32A8-4894-892F-E9A17C265E50}"/>
+    <hyperlink ref="E27" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{171A9AE7-4794-4BB8-965A-AD8F9F09DABB}"/>
+    <hyperlink ref="E28" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{266E5C18-7BF9-4FB5-B10B-44B2FA869ABF}"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8F795C73-FAAE-4C01-A312-AE9B38D7349B}"/>
+    <hyperlink ref="E30" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AF32642E-B451-4FE4-880E-39F081C35D1F}"/>
+    <hyperlink ref="E31" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A2C3177C-8E61-4669-85C1-6B83BA6D7B53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>

--- a/DDAf_2023_Tableau_annexe_sources.xlsx
+++ b/DDAf_2023_Tableau_annexe_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206D0A6-BD14-44B9-9208-5E9B9BE8334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E447FB1C-7A12-4DB4-9B9F-ADB601ADF812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF074E62-09DF-481A-8007-70A2FD19E2F6}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5DB54E08-E7A8-4538-8DA8-B053AD0CCA19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -83,7 +83,7 @@
     <t>Récupéré le 19/11/2022</t>
   </si>
   <si>
-    <t>www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+    <t>www.worldbank.org/en/publication/wdr2022/brief/world-development-report-2022-data</t>
   </si>
   <si>
     <t>Comptes nationaux de la Division de statistique des Nations Unies</t>
@@ -116,9 +116,6 @@
     <t>PNUD</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>http://hdr.undp.org/en/content/human-development-index-hdi</t>
   </si>
   <si>
@@ -140,7 +137,7 @@
     <t>OCDE et Institute for Health Metrics and Evaluation</t>
   </si>
   <si>
-    <t>Mis à jour le 20/12/2022</t>
+    <t>Mis à jour le 20/12/2020</t>
   </si>
   <si>
     <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
@@ -221,9 +218,6 @@
     <t>CNUCED</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf</t>
   </si>
   <si>
@@ -377,10 +371,7 @@
     <t>https://population.un.org/wpp/Download/Standard/Population/</t>
   </si>
   <si>
-    <t>World Urbanization Prospects 2018, ONU</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>World Urbanization Prospects 2022, ONU</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
@@ -502,7 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -521,6 +512,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -530,7 +524,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{356451BA-B08B-4591-A69D-C14688F7B913}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{BCBFE236-D94A-4C04-9277-1C20BF063B68}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -575,13 +569,14 @@
         <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri Light"/>
+        <family val="2"/>
         <scheme val="major"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -693,7 +688,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{EE28F141-0776-4F38-8B93-F9B37C3DEA42}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{9B6D902C-E1E7-4AE4-A391-538E2B75F564}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -711,12 +706,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AE7050B-65AD-4E65-8453-B16FD3936837}" name="Table1" displayName="Table1" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A655082-FBA8-4D25-86F3-BE361765A266}" name="Table1" displayName="Table1" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7380D97A-3340-455D-8103-0510917E133C}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{AF98632F-DF3D-47FA-97DD-F9C0F7FC4EA7}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" xr3:uid="{69DD1A71-9A40-45ED-969E-D4D18035141C}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{C5D0D8A3-5D24-4642-89F7-7C0B6166C4DA}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{20CF6249-AD6E-472F-9371-7CF7F966EA7B}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A85191C6-2484-4123-BEF2-D0FC2B8B89CC}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{C9310343-4138-42CC-937E-FEAA460BEED7}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{6CF5864D-AAFE-4D1C-9CF7-76E33BC8EDC7}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1018,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DA7B-DB0E-4CE6-808E-5A56027B5329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A427A117-67F8-4885-93A5-4D23D4608B40}">
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1061,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -1069,14 +1064,14 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -1084,14 +1079,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1099,14 +1094,14 @@
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
@@ -1114,14 +1109,14 @@
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -1129,14 +1124,14 @@
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>25</v>
@@ -1144,371 +1139,371 @@
       <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="E26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="E32" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1516,8 +1511,8 @@
     </row>
     <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
-      <c r="B35" s="10" t="s">
-        <v>117</v>
+      <c r="B35" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1527,13 +1522,13 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1760,39 +1755,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{52C8FDE3-02F2-4617-8AC4-4F9E2AE3B932}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{E76AF8EE-9DF1-4F64-9D15-F5A40F3DD9FC}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E9547057-37A8-4C6E-A0AC-C2184ACBB7E1}"/>
-    <hyperlink ref="B35" r:id="rId4" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{5AF2AC08-3A98-4007-BF85-9B918991F92F}"/>
-    <hyperlink ref="B37" r:id="rId5" xr:uid="{73D8AB86-46B2-4D82-8108-3B6B9898B7E9}"/>
-    <hyperlink ref="B38" r:id="rId6" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{6E2C2286-CDC4-484C-AD53-194D21018B18}"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7E574EB1-CA81-4A7D-AB31-5C8673036B52}"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A1E03209-2256-41C1-8DA1-12F482BEA330}"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{065273F7-FA35-4A2D-97D5-4BFB22FB5071}"/>
-    <hyperlink ref="E8" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EF7935A9-49F8-4F41-80B8-0CBE5E93A024}"/>
-    <hyperlink ref="E9" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2B90155D-7381-423E-981B-FABAB84AE099}"/>
-    <hyperlink ref="E10" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F9AA31EA-D63C-4088-A18F-BC3DE74B2810}"/>
-    <hyperlink ref="E11" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F469DF47-5E78-4ABB-ABDF-644026B94DE9}"/>
-    <hyperlink ref="E12" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{40601511-7BFE-490B-AF95-D4B213B88A23}"/>
-    <hyperlink ref="E13" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7E7451D0-02E8-468D-94CB-1D89E48018E0}"/>
-    <hyperlink ref="E14" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{93B584AA-E1BE-47A6-9629-12B09624A77E}"/>
-    <hyperlink ref="E15" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0929C542-C965-4F05-A646-0961330B1EB7}"/>
-    <hyperlink ref="E16" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{056E9386-5D81-4B89-AD5C-56559205750C}"/>
-    <hyperlink ref="E17" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FE471EBB-84BB-4319-8B4F-95EC18D3FC05}"/>
-    <hyperlink ref="E18" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5A44A625-FB23-43F8-B461-D547637C1B06}"/>
-    <hyperlink ref="E19" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F1E8B48A-CD02-469E-A91B-2219FE2282ED}"/>
-    <hyperlink ref="E20" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{432A33EC-442D-4E1D-9264-98B24F3A78F6}"/>
-    <hyperlink ref="E21" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FC50FADD-3945-461D-84D8-2207CD35BF03}"/>
-    <hyperlink ref="E22" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A8028032-1AAC-42D0-A58F-3EB298520DFB}"/>
-    <hyperlink ref="E23" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1E47887C-9C91-40DE-8B04-1133B2322060}"/>
-    <hyperlink ref="E24" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{05A1D1A6-5D86-414F-9F29-F9418B9E4BAA}"/>
-    <hyperlink ref="E25" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BC9B1144-7A19-4D4D-9FE6-03759A0B5B7F}"/>
-    <hyperlink ref="E26" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5DE55AC9-32A8-4894-892F-E9A17C265E50}"/>
-    <hyperlink ref="E27" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{171A9AE7-4794-4BB8-965A-AD8F9F09DABB}"/>
-    <hyperlink ref="E28" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{266E5C18-7BF9-4FB5-B10B-44B2FA869ABF}"/>
-    <hyperlink ref="E29" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8F795C73-FAAE-4C01-A312-AE9B38D7349B}"/>
-    <hyperlink ref="E30" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AF32642E-B451-4FE4-880E-39F081C35D1F}"/>
-    <hyperlink ref="E31" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A2C3177C-8E61-4669-85C1-6B83BA6D7B53}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B899CA14-AAD9-428D-A464-C6FA93908AE9}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{D1B64C29-0409-45E4-8BCF-19DDB9817323}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{89681344-40B2-4670-AADE-17912E7C7BF4}"/>
+    <hyperlink ref="B37" r:id="rId4" xr:uid="{74EAC216-1A54-4EAC-A958-B475B609659A}"/>
+    <hyperlink ref="E5" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{77D9A9B1-BB4A-4CB2-AA53-1B2C772F0E2A}"/>
+    <hyperlink ref="E6" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4B8C85BB-7A59-4813-AF33-94A5A484AEBE}"/>
+    <hyperlink ref="E7" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B23C5C23-6C25-41A8-B9C9-A3204A45A38D}"/>
+    <hyperlink ref="E8" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5D248277-7AAF-42D0-A9E8-B47A877D880A}"/>
+    <hyperlink ref="E9" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C526531C-9379-4862-A6AB-6B1851D43FB8}"/>
+    <hyperlink ref="E10" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{144CEF5E-7577-4256-9AEC-794E903A13A3}"/>
+    <hyperlink ref="E11" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{16FF5FE2-32D0-4854-9874-B27FF7769167}"/>
+    <hyperlink ref="E12" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8997206E-A4E7-4678-A07F-E39F8FBC698C}"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1BBF4B8A-1A62-4ABF-96EB-9DB69B23F0F0}"/>
+    <hyperlink ref="E14" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{23278BF5-3A93-4E20-A000-CD5645099DCB}"/>
+    <hyperlink ref="E15" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2D1A74F0-8887-448A-9482-895C238871EF}"/>
+    <hyperlink ref="E16" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BA5CA458-E438-4C5A-B1A8-AC4FBB5AEF24}"/>
+    <hyperlink ref="E17" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E03A24E5-6D2F-40D8-96A6-7E8631A4809C}"/>
+    <hyperlink ref="E18" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{68A038AD-BE78-4AE7-8F77-640B6FF9EDA1}"/>
+    <hyperlink ref="E19" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9724F407-DEF5-42D5-8BBA-2DDCBD4C39A7}"/>
+    <hyperlink ref="E20" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3730B37A-63D6-412E-98F7-E3A69DEF2636}"/>
+    <hyperlink ref="E21" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7F9F5611-7D67-4045-82A0-A26A0A8FD162}"/>
+    <hyperlink ref="E22" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CB5C3307-C85E-4727-937D-A26A7B123392}"/>
+    <hyperlink ref="E23" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{779BB061-3F7C-448E-8913-F1595BF7E349}"/>
+    <hyperlink ref="E24" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{94D33CB1-91EA-4B95-A317-946BE35AA81E}"/>
+    <hyperlink ref="E25" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EED975F5-5EF2-4A7A-A040-2C045EBF4A9D}"/>
+    <hyperlink ref="E26" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5BB3E9EA-919C-4DBC-B62C-FD37CFB8E7F9}"/>
+    <hyperlink ref="E27" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BA805BA7-059C-45DF-A905-81777F405475}"/>
+    <hyperlink ref="E28" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E54FAB17-7B75-4670-8816-50F9973E0D39}"/>
+    <hyperlink ref="E29" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CE090061-264A-4D58-8E32-90658387281E}"/>
+    <hyperlink ref="E30" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E875A72D-E05C-4A8D-8B67-12500353EE72}"/>
+    <hyperlink ref="E31" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F32E5898-8D9A-4CFB-8BF4-A546F767C06A}"/>
+    <hyperlink ref="B35" r:id="rId32" xr:uid="{0BB1FE13-DC1A-467F-ABED-32E646C87720}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{8FCDFA4D-8AF7-457D-B458-AFBB2BF4A03F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>

--- a/DDAf_2023_Tableau_annexe_sources.xlsx
+++ b/DDAf_2023_Tableau_annexe_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E447FB1C-7A12-4DB4-9B9F-ADB601ADF812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E2F3B4-40EA-4C58-843E-7DA6CEFCDE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5DB54E08-E7A8-4538-8DA8-B053AD0CCA19}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{A1494B6F-532F-4688-8E85-18E0E1ACCC14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{BCBFE236-D94A-4C04-9277-1C20BF063B68}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{46064E0B-357A-4F49-BF2B-5A783BE0DFD9}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -688,7 +688,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{9B6D902C-E1E7-4AE4-A391-538E2B75F564}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{901909CB-EC30-425C-AFBA-71B8C13E7A32}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -706,12 +706,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A655082-FBA8-4D25-86F3-BE361765A266}" name="Table1" displayName="Table1" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C970668-55DF-4939-95BA-693FCC72CFDE}" name="Table1" displayName="Table1" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{20CF6249-AD6E-472F-9371-7CF7F966EA7B}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A85191C6-2484-4123-BEF2-D0FC2B8B89CC}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" xr3:uid="{C9310343-4138-42CC-937E-FEAA460BEED7}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{6CF5864D-AAFE-4D1C-9CF7-76E33BC8EDC7}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{B7A3F896-F62C-437A-B071-EB184A66056F}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{488B492D-72A5-450A-99C0-5820EF548E3C}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{91DE4C06-4E46-4D9B-BB58-A5F3D80DCEE7}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{919A6AE1-D2C6-49D4-BB51-988044149B34}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A427A117-67F8-4885-93A5-4D23D4608B40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA72420C-9F6D-4BA1-9448-2A4ED509CBAB}">
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1755,39 +1755,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B899CA14-AAD9-428D-A464-C6FA93908AE9}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{D1B64C29-0409-45E4-8BCF-19DDB9817323}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{89681344-40B2-4670-AADE-17912E7C7BF4}"/>
-    <hyperlink ref="B37" r:id="rId4" xr:uid="{74EAC216-1A54-4EAC-A958-B475B609659A}"/>
-    <hyperlink ref="E5" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{77D9A9B1-BB4A-4CB2-AA53-1B2C772F0E2A}"/>
-    <hyperlink ref="E6" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4B8C85BB-7A59-4813-AF33-94A5A484AEBE}"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B23C5C23-6C25-41A8-B9C9-A3204A45A38D}"/>
-    <hyperlink ref="E8" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5D248277-7AAF-42D0-A9E8-B47A877D880A}"/>
-    <hyperlink ref="E9" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C526531C-9379-4862-A6AB-6B1851D43FB8}"/>
-    <hyperlink ref="E10" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{144CEF5E-7577-4256-9AEC-794E903A13A3}"/>
-    <hyperlink ref="E11" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{16FF5FE2-32D0-4854-9874-B27FF7769167}"/>
-    <hyperlink ref="E12" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8997206E-A4E7-4678-A07F-E39F8FBC698C}"/>
-    <hyperlink ref="E13" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1BBF4B8A-1A62-4ABF-96EB-9DB69B23F0F0}"/>
-    <hyperlink ref="E14" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{23278BF5-3A93-4E20-A000-CD5645099DCB}"/>
-    <hyperlink ref="E15" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2D1A74F0-8887-448A-9482-895C238871EF}"/>
-    <hyperlink ref="E16" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BA5CA458-E438-4C5A-B1A8-AC4FBB5AEF24}"/>
-    <hyperlink ref="E17" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E03A24E5-6D2F-40D8-96A6-7E8631A4809C}"/>
-    <hyperlink ref="E18" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{68A038AD-BE78-4AE7-8F77-640B6FF9EDA1}"/>
-    <hyperlink ref="E19" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9724F407-DEF5-42D5-8BBA-2DDCBD4C39A7}"/>
-    <hyperlink ref="E20" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3730B37A-63D6-412E-98F7-E3A69DEF2636}"/>
-    <hyperlink ref="E21" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7F9F5611-7D67-4045-82A0-A26A0A8FD162}"/>
-    <hyperlink ref="E22" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CB5C3307-C85E-4727-937D-A26A7B123392}"/>
-    <hyperlink ref="E23" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{779BB061-3F7C-448E-8913-F1595BF7E349}"/>
-    <hyperlink ref="E24" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{94D33CB1-91EA-4B95-A317-946BE35AA81E}"/>
-    <hyperlink ref="E25" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EED975F5-5EF2-4A7A-A040-2C045EBF4A9D}"/>
-    <hyperlink ref="E26" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5BB3E9EA-919C-4DBC-B62C-FD37CFB8E7F9}"/>
-    <hyperlink ref="E27" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BA805BA7-059C-45DF-A905-81777F405475}"/>
-    <hyperlink ref="E28" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E54FAB17-7B75-4670-8816-50F9973E0D39}"/>
-    <hyperlink ref="E29" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CE090061-264A-4D58-8E32-90658387281E}"/>
-    <hyperlink ref="E30" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E875A72D-E05C-4A8D-8B67-12500353EE72}"/>
-    <hyperlink ref="E31" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F32E5898-8D9A-4CFB-8BF4-A546F767C06A}"/>
-    <hyperlink ref="B35" r:id="rId32" xr:uid="{0BB1FE13-DC1A-467F-ABED-32E646C87720}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{8FCDFA4D-8AF7-457D-B458-AFBB2BF4A03F}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{15792763-53CC-4AD3-8A0E-9672900A36E3}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{AA750B7D-9547-42A6-B37C-936BB4AB7809}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7E9DC071-9C9F-4502-BCEE-72F03F161E20}"/>
+    <hyperlink ref="B37" r:id="rId4" xr:uid="{CCD17571-F5A2-4496-8E12-ECAA384C56DA}"/>
+    <hyperlink ref="E5" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E46DB0DC-0709-4EA4-9B81-C8E69B651B30}"/>
+    <hyperlink ref="E6" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{24A7F080-95BF-403B-B688-B21EDF8CD842}"/>
+    <hyperlink ref="E7" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{ABDB38D5-30F1-433A-8EAC-3E7297571C71}"/>
+    <hyperlink ref="E8" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0C7FA2AC-48F5-4BDE-BFD8-CB6FA35CF712}"/>
+    <hyperlink ref="E9" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2F37DD6B-A5DA-4EB8-916A-5519EBC97C15}"/>
+    <hyperlink ref="E10" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2422AF3B-6590-4E12-B3FD-5CF37C00D5EA}"/>
+    <hyperlink ref="E11" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0031BF7C-3397-4E54-B3EE-FFB57FE06190}"/>
+    <hyperlink ref="E12" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3F141720-294A-4657-8B91-B9620966EB77}"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8172D3AE-9338-4FED-8E00-0468E73B4A73}"/>
+    <hyperlink ref="E14" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{46264A6C-BCF9-47AB-BB4F-E0F58E701EF1}"/>
+    <hyperlink ref="E15" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CD8017C1-E609-41A3-9735-13698301124E}"/>
+    <hyperlink ref="E16" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3654C7C9-8C7A-4CAF-9086-B0594772E0C4}"/>
+    <hyperlink ref="E17" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{32356449-C894-4C78-828B-C533C1ED2FB9}"/>
+    <hyperlink ref="E18" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6BD4407F-3CB6-4589-95B7-ABA07E53D4BD}"/>
+    <hyperlink ref="E19" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{43D07285-9EF4-494A-801A-C444E8899D11}"/>
+    <hyperlink ref="E20" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5A3FF343-884E-450E-BE86-0B3F0CAB2BD4}"/>
+    <hyperlink ref="E21" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{ABD8DD0E-67E6-44EC-8E0D-D8D9B2C76BC4}"/>
+    <hyperlink ref="E22" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6346A2D4-B0EA-4888-AB54-3DDF331713F7}"/>
+    <hyperlink ref="E23" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{371E609A-F621-4E93-A567-BBBB004BB140}"/>
+    <hyperlink ref="E24" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{31889C12-7759-419C-8EF6-B69FCE914C0C}"/>
+    <hyperlink ref="E25" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7ADB6EB0-A848-4B79-B171-70D20C1EE680}"/>
+    <hyperlink ref="E26" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FE51EF7E-8929-4B67-B848-8AB299EBDDC8}"/>
+    <hyperlink ref="E27" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1BAE9C4B-F44E-43F1-BA10-A9E5283BC0E9}"/>
+    <hyperlink ref="E28" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A48AB63F-D7F9-4912-9915-8B995CF94681}"/>
+    <hyperlink ref="E29" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7A4BDEEB-D000-42F3-8B0E-D2912A106685}"/>
+    <hyperlink ref="E30" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E9CE29D6-891D-40EC-A3DF-16064036AE42}"/>
+    <hyperlink ref="E31" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A5065627-C4E8-4AB7-B566-D0FA45301A7F}"/>
+    <hyperlink ref="B35" r:id="rId32" xr:uid="{CB0A7586-4210-4B4F-B60C-AFE2ECC7F82F}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{88525755-F5CA-455A-87F3-932434E18AB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>

--- a/DDAf_2023_Tableau_annexe_sources.xlsx
+++ b/DDAf_2023_Tableau_annexe_sources.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E2F3B4-40EA-4C58-843E-7DA6CEFCDE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70CF8BD-00A3-411E-98DE-1618C0EA9B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{A1494B6F-532F-4688-8E85-18E0E1ACCC14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{B250EB4A-33BF-418D-B3BE-4D20B71947E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Comité d'aide au développement de l'OCDE (CAD)</t>
   </si>
   <si>
-    <t>Récupéré le 11/04/2023</t>
+    <t>Récupéré le 27/10/2023</t>
   </si>
   <si>
     <t>https://stats-2.oecd.org/Index.aspx?lang=fr&amp;SubSessionId=6a671414-4b8a-437c-8c72-4ae6ef4ea94c&amp;themetreeid=3</t>
@@ -161,7 +161,7 @@
     <t>Fonds monétaire international (FMI)</t>
   </si>
   <si>
-    <t>Mis à jour le 22/11/2022</t>
+    <t>Mis à jour le 25/10/2023</t>
   </si>
   <si>
     <t>https://data.imf.org/?sk=7A51304B-6426-40C0-83DD-CA473CA1FD52</t>
@@ -194,7 +194,7 @@
     <t>Banque mondiale-KNOMAD</t>
   </si>
   <si>
-    <t>Novembre 2022</t>
+    <t>Juin 2023</t>
   </si>
   <si>
     <t>www.knomad.org/</t>
@@ -227,7 +227,7 @@
     <t>Banque mondiale</t>
   </si>
   <si>
-    <t>Mise à jour le 11/05/2023</t>
+    <t>Mise à jour le 10/10/2023</t>
   </si>
   <si>
     <t>https://data.worldbank.org/products/wdi</t>
@@ -299,7 +299,7 @@
     <t>FMI</t>
   </si>
   <si>
-    <t>Avril 2023</t>
+    <t>Octobre 2023</t>
   </si>
   <si>
     <t>www.imf.org/external/pubs/ft/weo/2019/01/weodata/index.aspx</t>
@@ -320,7 +320,7 @@
     <t>UNCTADSTAT, Centre de données sur les IDE</t>
   </si>
   <si>
-    <t>Récupéré le 21/12/2022</t>
+    <t>Mis à jour le 22/09/2022</t>
   </si>
   <si>
     <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr</t>
@@ -371,7 +371,10 @@
     <t>https://population.un.org/wpp/Download/Standard/Population/</t>
   </si>
   <si>
-    <t>World Urbanization Prospects 2022, ONU</t>
+    <t>World Urbanization Prospects 2018, ONU</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
@@ -524,7 +527,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{46064E0B-357A-4F49-BF2B-5A783BE0DFD9}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{1865C998-5B84-4F5E-9C21-864344F3D91B}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -688,7 +691,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{901909CB-EC30-425C-AFBA-71B8C13E7A32}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{2A2D5FEF-94E2-4764-9DA5-19FA6B1BF40C}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -706,12 +709,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C970668-55DF-4939-95BA-693FCC72CFDE}" name="Table1" displayName="Table1" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B7319AD-5A1F-483C-9431-5B95C778FD24}" name="Table1" displayName="Table1" ref="B3:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B7A3F896-F62C-437A-B071-EB184A66056F}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{488B492D-72A5-450A-99C0-5820EF548E3C}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" xr3:uid="{91DE4C06-4E46-4D9B-BB58-A5F3D80DCEE7}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{919A6AE1-D2C6-49D4-BB51-988044149B34}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{3D8A4AAB-2666-4FB9-BE07-E79B029AB398}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E8B3AE26-0682-4236-B115-AB626440B424}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{B08E499C-E235-4F22-9E05-CC7B85715E4B}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{EE84DA06-592F-43CF-8E1A-33E819E82F0D}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1013,27 +1016,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA72420C-9F6D-4BA1-9448-2A4ED509CBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97736A7-7A8C-42EB-80DB-7B05B6286427}">
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1044,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1056,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -1071,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -1086,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1101,7 +1104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
@@ -1116,7 +1119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -1131,7 +1134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>25</v>
@@ -1146,7 +1149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>28</v>
@@ -1161,7 +1164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>32</v>
@@ -1176,7 +1179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>36</v>
@@ -1191,7 +1194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -1206,7 +1209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>44</v>
@@ -1221,7 +1224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
         <v>47</v>
@@ -1236,7 +1239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>51</v>
@@ -1251,7 +1254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
         <v>55</v>
@@ -1266,7 +1269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
         <v>59</v>
@@ -1281,7 +1284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>62</v>
@@ -1296,7 +1299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
         <v>66</v>
@@ -1311,7 +1314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
         <v>69</v>
@@ -1326,7 +1329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>73</v>
@@ -1341,7 +1344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -1356,7 +1359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
         <v>79</v>
@@ -1371,7 +1374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
         <v>82</v>
@@ -1386,7 +1389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
         <v>86</v>
@@ -1401,7 +1404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
         <v>90</v>
@@ -1416,7 +1419,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
         <v>94</v>
@@ -1431,7 +1434,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
         <v>97</v>
@@ -1446,7 +1449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="7" t="s">
         <v>101</v>
@@ -1461,7 +1464,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>105</v>
@@ -1476,7 +1479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="7" t="s">
         <v>108</v>
@@ -1491,7 +1494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="7" t="s">
         <v>112</v>
@@ -1499,295 +1502,295 @@
       <c r="C33" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="8">
-        <v>2021</v>
+      <c r="D33" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{15792763-53CC-4AD3-8A0E-9672900A36E3}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{AA750B7D-9547-42A6-B37C-936BB4AB7809}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7E9DC071-9C9F-4502-BCEE-72F03F161E20}"/>
-    <hyperlink ref="B37" r:id="rId4" xr:uid="{CCD17571-F5A2-4496-8E12-ECAA384C56DA}"/>
-    <hyperlink ref="E5" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E46DB0DC-0709-4EA4-9B81-C8E69B651B30}"/>
-    <hyperlink ref="E6" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{24A7F080-95BF-403B-B688-B21EDF8CD842}"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{ABDB38D5-30F1-433A-8EAC-3E7297571C71}"/>
-    <hyperlink ref="E8" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0C7FA2AC-48F5-4BDE-BFD8-CB6FA35CF712}"/>
-    <hyperlink ref="E9" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2F37DD6B-A5DA-4EB8-916A-5519EBC97C15}"/>
-    <hyperlink ref="E10" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2422AF3B-6590-4E12-B3FD-5CF37C00D5EA}"/>
-    <hyperlink ref="E11" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0031BF7C-3397-4E54-B3EE-FFB57FE06190}"/>
-    <hyperlink ref="E12" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3F141720-294A-4657-8B91-B9620966EB77}"/>
-    <hyperlink ref="E13" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8172D3AE-9338-4FED-8E00-0468E73B4A73}"/>
-    <hyperlink ref="E14" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{46264A6C-BCF9-47AB-BB4F-E0F58E701EF1}"/>
-    <hyperlink ref="E15" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CD8017C1-E609-41A3-9735-13698301124E}"/>
-    <hyperlink ref="E16" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3654C7C9-8C7A-4CAF-9086-B0594772E0C4}"/>
-    <hyperlink ref="E17" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{32356449-C894-4C78-828B-C533C1ED2FB9}"/>
-    <hyperlink ref="E18" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6BD4407F-3CB6-4589-95B7-ABA07E53D4BD}"/>
-    <hyperlink ref="E19" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{43D07285-9EF4-494A-801A-C444E8899D11}"/>
-    <hyperlink ref="E20" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5A3FF343-884E-450E-BE86-0B3F0CAB2BD4}"/>
-    <hyperlink ref="E21" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{ABD8DD0E-67E6-44EC-8E0D-D8D9B2C76BC4}"/>
-    <hyperlink ref="E22" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6346A2D4-B0EA-4888-AB54-3DDF331713F7}"/>
-    <hyperlink ref="E23" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{371E609A-F621-4E93-A567-BBBB004BB140}"/>
-    <hyperlink ref="E24" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{31889C12-7759-419C-8EF6-B69FCE914C0C}"/>
-    <hyperlink ref="E25" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7ADB6EB0-A848-4B79-B171-70D20C1EE680}"/>
-    <hyperlink ref="E26" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FE51EF7E-8929-4B67-B848-8AB299EBDDC8}"/>
-    <hyperlink ref="E27" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{1BAE9C4B-F44E-43F1-BA10-A9E5283BC0E9}"/>
-    <hyperlink ref="E28" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A48AB63F-D7F9-4912-9915-8B995CF94681}"/>
-    <hyperlink ref="E29" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7A4BDEEB-D000-42F3-8B0E-D2912A106685}"/>
-    <hyperlink ref="E30" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E9CE29D6-891D-40EC-A3DF-16064036AE42}"/>
-    <hyperlink ref="E31" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A5065627-C4E8-4AB7-B566-D0FA45301A7F}"/>
-    <hyperlink ref="B35" r:id="rId32" xr:uid="{CB0A7586-4210-4B4F-B60C-AFE2ECC7F82F}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{88525755-F5CA-455A-87F3-932434E18AB3}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A9168895-F47E-49CA-B907-4C498B2F32B8}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{A5935C96-2B2E-4E68-96C7-BF02941BB217}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3153BE7C-3488-486F-A013-7AE776B4E74C}"/>
+    <hyperlink ref="B37" r:id="rId4" xr:uid="{C50666E9-0AA3-426B-8B39-DADD95BD422F}"/>
+    <hyperlink ref="E5" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0DC2F8E2-EB0F-4CEB-8842-FBCE306C7710}"/>
+    <hyperlink ref="E6" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8A310963-DDAC-4217-AF28-01219461E898}"/>
+    <hyperlink ref="E7" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C5452CE1-9185-4D6B-B998-510FE702BE00}"/>
+    <hyperlink ref="E8" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EA485D19-93B6-498C-904D-CCB63761BE8C}"/>
+    <hyperlink ref="E9" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5929E06C-9711-447F-9887-250EFF042D3D}"/>
+    <hyperlink ref="E10" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{970E1DAB-6814-44C3-A0FF-AAC84A16C39C}"/>
+    <hyperlink ref="E11" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CFDCA034-665C-460E-998F-48D157A8AB66}"/>
+    <hyperlink ref="E12" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6D8D183F-319B-45AF-9813-CBBA5DD70B47}"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{21825DF1-B6F5-4F16-91AD-5DBD477BD47F}"/>
+    <hyperlink ref="E14" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{14177D29-1AAB-41EC-B3CA-6925C6C4F001}"/>
+    <hyperlink ref="E15" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F5208EDB-CBD9-4F68-AED8-C542150969DD}"/>
+    <hyperlink ref="E16" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{20D24647-7DCC-4C41-B8AF-E11BA623E5DC}"/>
+    <hyperlink ref="E17" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{52C5DFA7-917A-45DD-9DE4-B0C3FB20B6B0}"/>
+    <hyperlink ref="E18" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A54F21C3-7FA1-4F00-96C3-2DCE4BD851AD}"/>
+    <hyperlink ref="E19" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D8299044-BEC3-4791-937B-B0731504F424}"/>
+    <hyperlink ref="E20" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A4DBECFD-9985-4331-9D9C-F9A2E4E63807}"/>
+    <hyperlink ref="E21" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F51E2A9E-3798-4A36-970E-90D5F9C4C1FD}"/>
+    <hyperlink ref="E22" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7A3E7468-842F-4A68-98C3-B9410B621B9B}"/>
+    <hyperlink ref="E23" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{99DC65D6-FA39-4C4E-A61C-9164E1C0F3A2}"/>
+    <hyperlink ref="E24" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FF713A19-6053-45EB-A586-9A39556E5B1E}"/>
+    <hyperlink ref="E25" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2431D0A5-7D22-4033-8117-A6A5016E511B}"/>
+    <hyperlink ref="E26" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{59358D00-89BC-47D7-A46C-B0C3492B2CC6}"/>
+    <hyperlink ref="E27" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6379978D-CB6B-455E-919E-CD32FF29CC36}"/>
+    <hyperlink ref="E28" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F3FACDAE-FEAE-43C0-A6A5-BD22A7CA2A5B}"/>
+    <hyperlink ref="E29" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8BBD93BC-A9B7-464A-81C1-68F3AC9A3BE3}"/>
+    <hyperlink ref="E30" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8CDC31F0-C125-40DC-8A85-C6F3B600B534}"/>
+    <hyperlink ref="E31" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EA4D14A0-4AAD-487E-B602-D09C74D43DB4}"/>
+    <hyperlink ref="B35" r:id="rId32" xr:uid="{E01F1019-6270-46F3-B503-D4A82384124E}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{5082F30F-39D0-4056-8E69-DEBFF5C72567}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
